--- a/R/analysis/data/Accuracy_genuine_lf.xlsx
+++ b/R/analysis/data/Accuracy_genuine_lf.xlsx
@@ -524,7 +524,7 @@
         <v>0.75</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1.79</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -544,7 +544,7 @@
         <v>0.75</v>
       </c>
       <c r="E3" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -564,7 +564,7 @@
         <v>0.81</v>
       </c>
       <c r="E4" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -584,7 +584,7 @@
         <v>0.94</v>
       </c>
       <c r="E5" t="n">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -604,7 +604,7 @@
         <v>0.94</v>
       </c>
       <c r="E6" t="n">
-        <v>1.14</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -624,7 +624,7 @@
         <v>0.94</v>
       </c>
       <c r="E7" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -644,7 +644,7 @@
         <v>0.75</v>
       </c>
       <c r="E8" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -664,7 +664,7 @@
         <v>0.62</v>
       </c>
       <c r="E9" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -684,7 +684,7 @@
         <v>0.56</v>
       </c>
       <c r="E10" t="n">
-        <v>1.21</v>
+        <v>0.85</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -704,7 +704,7 @@
         <v>0.69</v>
       </c>
       <c r="E11" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -724,7 +724,7 @@
         <v>0.69</v>
       </c>
       <c r="E12" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="F12" t="s">
         <v>8</v>
@@ -744,7 +744,7 @@
         <v>0.75</v>
       </c>
       <c r="E13" t="n">
-        <v>2.26</v>
+        <v>2.54</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
@@ -764,7 +764,7 @@
         <v>0.88</v>
       </c>
       <c r="E14" t="n">
-        <v>2.91</v>
+        <v>2.7</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -784,7 +784,7 @@
         <v>0.75</v>
       </c>
       <c r="E15" t="n">
-        <v>2.52</v>
+        <v>2.41</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>
@@ -804,7 +804,7 @@
         <v>0.69</v>
       </c>
       <c r="E16" t="n">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="F16" t="s">
         <v>8</v>
@@ -824,7 +824,7 @@
         <v>0.69</v>
       </c>
       <c r="E17" t="n">
-        <v>1.89</v>
+        <v>1.54</v>
       </c>
       <c r="F17" t="s">
         <v>8</v>
@@ -844,7 +844,7 @@
         <v>0.75</v>
       </c>
       <c r="E18" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
@@ -864,7 +864,7 @@
         <v>0.75</v>
       </c>
       <c r="E19" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
@@ -884,7 +884,7 @@
         <v>0.5</v>
       </c>
       <c r="E20" t="n">
-        <v>3.28</v>
+        <v>2.63</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
@@ -904,7 +904,7 @@
         <v>0.75</v>
       </c>
       <c r="E21" t="n">
-        <v>3.44</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
@@ -924,7 +924,7 @@
         <v>0.69</v>
       </c>
       <c r="E22" t="n">
-        <v>3.47</v>
+        <v>2.42</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
@@ -944,7 +944,7 @@
         <v>0.75</v>
       </c>
       <c r="E23" t="n">
-        <v>4.02</v>
+        <v>3.9</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
@@ -964,7 +964,7 @@
         <v>0.88</v>
       </c>
       <c r="E24" t="n">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
@@ -984,7 +984,7 @@
         <v>0.75</v>
       </c>
       <c r="E25" t="n">
-        <v>3.14</v>
+        <v>2.76</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
@@ -1004,7 +1004,7 @@
         <v>0.62</v>
       </c>
       <c r="E26" t="n">
-        <v>3.13</v>
+        <v>2.81</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
@@ -1024,7 +1024,7 @@
         <v>0.62</v>
       </c>
       <c r="E27" t="n">
-        <v>3.31</v>
+        <v>1.85</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
@@ -1044,7 +1044,7 @@
         <v>0.69</v>
       </c>
       <c r="E28" t="n">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
@@ -1064,7 +1064,7 @@
         <v>0.56</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
@@ -1084,7 +1084,7 @@
         <v>0.81</v>
       </c>
       <c r="E30" t="n">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
@@ -1104,7 +1104,7 @@
         <v>0.75</v>
       </c>
       <c r="E31" t="n">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
@@ -1124,7 +1124,7 @@
         <v>0.81</v>
       </c>
       <c r="E32" t="n">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
@@ -1144,7 +1144,7 @@
         <v>0.88</v>
       </c>
       <c r="E33" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
@@ -1164,7 +1164,7 @@
         <v>0.81</v>
       </c>
       <c r="E34" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
@@ -1184,7 +1184,7 @@
         <v>0.75</v>
       </c>
       <c r="E35" t="n">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
@@ -1204,7 +1204,7 @@
         <v>0.56</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
@@ -1224,7 +1224,7 @@
         <v>0.69</v>
       </c>
       <c r="E37" t="n">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
@@ -1244,7 +1244,7 @@
         <v>0.62</v>
       </c>
       <c r="E38" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
@@ -1264,7 +1264,7 @@
         <v>0.56</v>
       </c>
       <c r="E39" t="n">
-        <v>0.66</v>
+        <v>0.51</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
@@ -1304,7 +1304,7 @@
         <v>0.69</v>
       </c>
       <c r="E41" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
@@ -1324,7 +1324,7 @@
         <v>0.63</v>
       </c>
       <c r="E42" t="n">
-        <v>0.81</v>
+        <v>0.71</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
@@ -1344,7 +1344,7 @@
         <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9</v>
+        <v>1.06</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
@@ -1364,7 +1364,7 @@
         <v>0.69</v>
       </c>
       <c r="E44" t="n">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
@@ -1384,7 +1384,7 @@
         <v>0.62</v>
       </c>
       <c r="E45" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
@@ -1404,7 +1404,7 @@
         <v>0.69</v>
       </c>
       <c r="E46" t="n">
-        <v>0.56</v>
+        <v>0.64</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
@@ -1424,7 +1424,7 @@
         <v>0.75</v>
       </c>
       <c r="E47" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -1444,7 +1444,7 @@
         <v>0.81</v>
       </c>
       <c r="E48" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -1464,7 +1464,7 @@
         <v>0.75</v>
       </c>
       <c r="E49" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="F49" t="s">
         <v>16</v>
@@ -1484,7 +1484,7 @@
         <v>0.75</v>
       </c>
       <c r="E50" t="n">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -1504,7 +1504,7 @@
         <v>0.81</v>
       </c>
       <c r="E51" t="n">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -1524,7 +1524,7 @@
         <v>0.88</v>
       </c>
       <c r="E52" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
@@ -1544,7 +1544,7 @@
         <v>0.69</v>
       </c>
       <c r="E53" t="n">
-        <v>0.94</v>
+        <v>0.72</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -1564,7 +1564,7 @@
         <v>0.56</v>
       </c>
       <c r="E54" t="n">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -1584,7 +1584,7 @@
         <v>0.75</v>
       </c>
       <c r="E55" t="n">
-        <v>0.94</v>
+        <v>0.88</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
@@ -1604,7 +1604,7 @@
         <v>0.69</v>
       </c>
       <c r="E56" t="n">
-        <v>0.54</v>
+        <v>0.4</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -1624,7 +1624,7 @@
         <v>0.75</v>
       </c>
       <c r="E57" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="F57" t="s">
         <v>16</v>
@@ -1644,7 +1644,7 @@
         <v>0.81</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="F58" t="s">
         <v>16</v>
@@ -1664,7 +1664,7 @@
         <v>0.81</v>
       </c>
       <c r="E59" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="F59" t="s">
         <v>16</v>
@@ -1684,7 +1684,7 @@
         <v>0.81</v>
       </c>
       <c r="E60" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -1704,7 +1704,7 @@
         <v>0.88</v>
       </c>
       <c r="E61" t="n">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
@@ -1724,7 +1724,7 @@
         <v>0.88</v>
       </c>
       <c r="E62" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="F62" t="s">
         <v>16</v>
@@ -1744,7 +1744,7 @@
         <v>0.69</v>
       </c>
       <c r="E63" t="n">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
@@ -1764,7 +1764,7 @@
         <v>0.75</v>
       </c>
       <c r="E64" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F64" t="s">
         <v>16</v>
@@ -1784,7 +1784,7 @@
         <v>0.5</v>
       </c>
       <c r="E65" t="n">
-        <v>1.03</v>
+        <v>0.78</v>
       </c>
       <c r="F65" t="s">
         <v>16</v>
@@ -1804,7 +1804,7 @@
         <v>0.81</v>
       </c>
       <c r="E66" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
@@ -1824,7 +1824,7 @@
         <v>0.62</v>
       </c>
       <c r="E67" t="n">
-        <v>1.09</v>
+        <v>2.62</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
@@ -1844,7 +1844,7 @@
         <v>0.62</v>
       </c>
       <c r="E68" t="n">
-        <v>0.81</v>
+        <v>0.66</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
@@ -1864,7 +1864,7 @@
         <v>0.5</v>
       </c>
       <c r="E69" t="n">
-        <v>1.03</v>
+        <v>0.69</v>
       </c>
       <c r="F69" t="s">
         <v>16</v>
@@ -1884,7 +1884,7 @@
         <v>0.44</v>
       </c>
       <c r="E70" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="F70" t="s">
         <v>16</v>
@@ -1904,7 +1904,7 @@
         <v>0.5</v>
       </c>
       <c r="E71" t="n">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="F71" t="s">
         <v>16</v>
@@ -1924,7 +1924,7 @@
         <v>0.44</v>
       </c>
       <c r="E72" t="n">
-        <v>0.84</v>
+        <v>0.69</v>
       </c>
       <c r="F72" t="s">
         <v>16</v>
@@ -1944,7 +1944,7 @@
         <v>0.44</v>
       </c>
       <c r="E73" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
@@ -1964,7 +1964,7 @@
         <v>0.62</v>
       </c>
       <c r="E74" t="n">
-        <v>1.77</v>
+        <v>1.31</v>
       </c>
       <c r="F74" t="s">
         <v>16</v>
@@ -1984,7 +1984,7 @@
         <v>0.69</v>
       </c>
       <c r="E75" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="F75" t="s">
         <v>16</v>
@@ -2004,7 +2004,7 @@
         <v>0.63</v>
       </c>
       <c r="E76" t="n">
-        <v>0.98</v>
+        <v>1.41</v>
       </c>
       <c r="F76" t="s">
         <v>16</v>
@@ -2024,7 +2024,7 @@
         <v>0.5</v>
       </c>
       <c r="E77" t="n">
-        <v>1.88</v>
+        <v>1.69</v>
       </c>
       <c r="F77" t="s">
         <v>16</v>
@@ -2044,7 +2044,7 @@
         <v>0.63</v>
       </c>
       <c r="E78" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="F78" t="s">
         <v>16</v>
@@ -2084,7 +2084,7 @@
         <v>0.62</v>
       </c>
       <c r="E80" t="n">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
@@ -2104,7 +2104,7 @@
         <v>0.5</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
@@ -2124,7 +2124,7 @@
         <v>0.56</v>
       </c>
       <c r="E82" t="n">
-        <v>0.84</v>
+        <v>0.71</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
@@ -2144,7 +2144,7 @@
         <v>0.69</v>
       </c>
       <c r="E83" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
@@ -2164,7 +2164,7 @@
         <v>0.88</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F84" t="s">
         <v>16</v>
@@ -2184,7 +2184,7 @@
         <v>0.69</v>
       </c>
       <c r="E85" t="n">
-        <v>0.98</v>
+        <v>0.72</v>
       </c>
       <c r="F85" t="s">
         <v>16</v>
@@ -2204,7 +2204,7 @@
         <v>0.88</v>
       </c>
       <c r="E86" t="n">
-        <v>1.24</v>
+        <v>1.12</v>
       </c>
       <c r="F86" t="s">
         <v>16</v>
@@ -2224,7 +2224,7 @@
         <v>0.88</v>
       </c>
       <c r="E87" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="F87" t="s">
         <v>16</v>
@@ -2244,7 +2244,7 @@
         <v>0.88</v>
       </c>
       <c r="E88" t="n">
-        <v>0.94</v>
+        <v>0.7</v>
       </c>
       <c r="F88" t="s">
         <v>16</v>
@@ -2264,7 +2264,7 @@
         <v>0.88</v>
       </c>
       <c r="E89" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="F89" t="s">
         <v>16</v>
@@ -2284,7 +2284,7 @@
         <v>0.81</v>
       </c>
       <c r="E90" t="n">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="F90" t="s">
         <v>16</v>
@@ -2304,7 +2304,7 @@
         <v>0.81</v>
       </c>
       <c r="E91" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="F91" t="s">
         <v>16</v>
@@ -2324,7 +2324,7 @@
         <v>0.75</v>
       </c>
       <c r="E92" t="n">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="F92" t="s">
         <v>8</v>
@@ -2344,7 +2344,7 @@
         <v>0.69</v>
       </c>
       <c r="E93" t="n">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="F93" t="s">
         <v>8</v>
@@ -2364,7 +2364,7 @@
         <v>0.69</v>
       </c>
       <c r="E94" t="n">
-        <v>0.68</v>
+        <v>0.84</v>
       </c>
       <c r="F94" t="s">
         <v>8</v>
@@ -2384,7 +2384,7 @@
         <v>0.75</v>
       </c>
       <c r="E95" t="n">
-        <v>1.01</v>
+        <v>0.8</v>
       </c>
       <c r="F95" t="s">
         <v>8</v>
@@ -2404,7 +2404,7 @@
         <v>0.69</v>
       </c>
       <c r="E96" t="n">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="F96" t="s">
         <v>8</v>
@@ -2424,7 +2424,7 @@
         <v>0.81</v>
       </c>
       <c r="E97" t="n">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="F97" t="s">
         <v>8</v>
@@ -2444,7 +2444,7 @@
         <v>0.69</v>
       </c>
       <c r="E98" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="F98" t="s">
         <v>8</v>
@@ -2484,7 +2484,7 @@
         <v>0.81</v>
       </c>
       <c r="E100" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F100" t="s">
         <v>8</v>
@@ -2504,7 +2504,7 @@
         <v>0.69</v>
       </c>
       <c r="E101" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="F101" t="s">
         <v>8</v>
@@ -2524,7 +2524,7 @@
         <v>0.75</v>
       </c>
       <c r="E102" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="F102" t="s">
         <v>8</v>
@@ -2544,7 +2544,7 @@
         <v>0.69</v>
       </c>
       <c r="E103" t="n">
-        <v>0.67</v>
+        <v>0.79</v>
       </c>
       <c r="F103" t="s">
         <v>8</v>
@@ -2564,7 +2564,7 @@
         <v>0.75</v>
       </c>
       <c r="E104" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="F104" t="s">
         <v>8</v>
@@ -2584,7 +2584,7 @@
         <v>0.75</v>
       </c>
       <c r="E105" t="n">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F105" t="s">
         <v>8</v>
@@ -2604,7 +2604,7 @@
         <v>0.62</v>
       </c>
       <c r="E106" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="F106" t="s">
         <v>8</v>
@@ -2624,7 +2624,7 @@
         <v>0.5</v>
       </c>
       <c r="E107" t="n">
-        <v>0.88</v>
+        <v>1.07</v>
       </c>
       <c r="F107" t="s">
         <v>8</v>
@@ -2644,7 +2644,7 @@
         <v>0.5</v>
       </c>
       <c r="E108" t="n">
-        <v>0.85</v>
+        <v>0.98</v>
       </c>
       <c r="F108" t="s">
         <v>8</v>
@@ -2664,7 +2664,7 @@
         <v>0.69</v>
       </c>
       <c r="E109" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="F109" t="s">
         <v>8</v>
@@ -2684,7 +2684,7 @@
         <v>0.62</v>
       </c>
       <c r="E110" t="n">
-        <v>2.19</v>
+        <v>1.82</v>
       </c>
       <c r="F110" t="s">
         <v>8</v>
@@ -2704,7 +2704,7 @@
         <v>0.69</v>
       </c>
       <c r="E111" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="F111" t="s">
         <v>8</v>
@@ -2724,7 +2724,7 @@
         <v>0.88</v>
       </c>
       <c r="E112" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="F112" t="s">
         <v>8</v>
@@ -2744,7 +2744,7 @@
         <v>0.81</v>
       </c>
       <c r="E113" t="n">
-        <v>2.29</v>
+        <v>2.08</v>
       </c>
       <c r="F113" t="s">
         <v>8</v>
@@ -2764,7 +2764,7 @@
         <v>0.69</v>
       </c>
       <c r="E114" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="F114" t="s">
         <v>8</v>
@@ -2784,7 +2784,7 @@
         <v>0.81</v>
       </c>
       <c r="E115" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="F115" t="s">
         <v>8</v>
@@ -2804,7 +2804,7 @@
         <v>0.75</v>
       </c>
       <c r="E116" t="n">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="F116" t="s">
         <v>8</v>
@@ -2824,7 +2824,7 @@
         <v>0.69</v>
       </c>
       <c r="E117" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="F117" t="s">
         <v>8</v>
@@ -2844,7 +2844,7 @@
         <v>0.81</v>
       </c>
       <c r="E118" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="F118" t="s">
         <v>8</v>
@@ -2864,7 +2864,7 @@
         <v>0.69</v>
       </c>
       <c r="E119" t="n">
-        <v>3.58</v>
+        <v>2.55</v>
       </c>
       <c r="F119" t="s">
         <v>8</v>
@@ -2904,7 +2904,7 @@
         <v>0.69</v>
       </c>
       <c r="E121" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="F121" t="s">
         <v>8</v>
@@ -2924,7 +2924,7 @@
         <v>0.75</v>
       </c>
       <c r="E122" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="F122" t="s">
         <v>8</v>
@@ -2944,7 +2944,7 @@
         <v>0.81</v>
       </c>
       <c r="E123" t="n">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="F123" t="s">
         <v>8</v>
@@ -2964,7 +2964,7 @@
         <v>0.75</v>
       </c>
       <c r="E124" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="F124" t="s">
         <v>8</v>
@@ -2984,7 +2984,7 @@
         <v>0.75</v>
       </c>
       <c r="E125" t="n">
-        <v>1.81</v>
+        <v>1.33</v>
       </c>
       <c r="F125" t="s">
         <v>8</v>
@@ -3004,7 +3004,7 @@
         <v>0.75</v>
       </c>
       <c r="E126" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="F126" t="s">
         <v>8</v>
@@ -3024,7 +3024,7 @@
         <v>0.88</v>
       </c>
       <c r="E127" t="n">
-        <v>1.1</v>
+        <v>0.97</v>
       </c>
       <c r="F127" t="s">
         <v>8</v>
@@ -3044,7 +3044,7 @@
         <v>0.75</v>
       </c>
       <c r="E128" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="F128" t="s">
         <v>16</v>
@@ -3064,7 +3064,7 @@
         <v>0.63</v>
       </c>
       <c r="E129" t="n">
-        <v>1.53</v>
+        <v>1.88</v>
       </c>
       <c r="F129" t="s">
         <v>16</v>
@@ -3084,7 +3084,7 @@
         <v>0.56</v>
       </c>
       <c r="E130" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="F130" t="s">
         <v>16</v>
@@ -3104,7 +3104,7 @@
         <v>0.94</v>
       </c>
       <c r="E131" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="F131" t="s">
         <v>16</v>
@@ -3124,7 +3124,7 @@
         <v>0.75</v>
       </c>
       <c r="E132" t="n">
-        <v>1.99</v>
+        <v>1.31</v>
       </c>
       <c r="F132" t="s">
         <v>16</v>
@@ -3164,7 +3164,7 @@
         <v>0.69</v>
       </c>
       <c r="E134" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="F134" t="s">
         <v>16</v>
@@ -3184,7 +3184,7 @@
         <v>0.63</v>
       </c>
       <c r="E135" t="n">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
@@ -3204,7 +3204,7 @@
         <v>0.69</v>
       </c>
       <c r="E136" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -3224,7 +3224,7 @@
         <v>0.69</v>
       </c>
       <c r="E137" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="F137" t="s">
         <v>16</v>
@@ -3244,7 +3244,7 @@
         <v>0.75</v>
       </c>
       <c r="E138" t="n">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="F138" t="s">
         <v>16</v>
@@ -3264,7 +3264,7 @@
         <v>0.69</v>
       </c>
       <c r="E139" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="F139" t="s">
         <v>16</v>
@@ -3284,7 +3284,7 @@
         <v>0.81</v>
       </c>
       <c r="E140" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="F140" t="s">
         <v>16</v>
@@ -3304,7 +3304,7 @@
         <v>0.88</v>
       </c>
       <c r="E141" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="F141" t="s">
         <v>16</v>
@@ -3324,7 +3324,7 @@
         <v>0.88</v>
       </c>
       <c r="E142" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="F142" t="s">
         <v>16</v>
@@ -3344,7 +3344,7 @@
         <v>0.69</v>
       </c>
       <c r="E143" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="F143" t="s">
         <v>16</v>
@@ -3364,7 +3364,7 @@
         <v>0.75</v>
       </c>
       <c r="E144" t="n">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="F144" t="s">
         <v>16</v>
@@ -3384,7 +3384,7 @@
         <v>0.75</v>
       </c>
       <c r="E145" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="F145" t="s">
         <v>16</v>
@@ -3404,7 +3404,7 @@
         <v>0.56</v>
       </c>
       <c r="E146" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="F146" t="s">
         <v>8</v>
@@ -3424,7 +3424,7 @@
         <v>0.56</v>
       </c>
       <c r="E147" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="F147" t="s">
         <v>8</v>
@@ -3444,7 +3444,7 @@
         <v>0.69</v>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="F148" t="s">
         <v>8</v>
@@ -3464,7 +3464,7 @@
         <v>0.75</v>
       </c>
       <c r="E149" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="F149" t="s">
         <v>8</v>
@@ -3484,7 +3484,7 @@
         <v>0.81</v>
       </c>
       <c r="E150" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="F150" t="s">
         <v>8</v>
@@ -3504,7 +3504,7 @@
         <v>0.81</v>
       </c>
       <c r="E151" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="F151" t="s">
         <v>8</v>
@@ -3524,7 +3524,7 @@
         <v>0.56</v>
       </c>
       <c r="E152" t="n">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="F152" t="s">
         <v>8</v>
@@ -3544,7 +3544,7 @@
         <v>0.56</v>
       </c>
       <c r="E153" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="F153" t="s">
         <v>8</v>
@@ -3564,7 +3564,7 @@
         <v>0.63</v>
       </c>
       <c r="E154" t="n">
-        <v>1.09</v>
+        <v>0.81</v>
       </c>
       <c r="F154" t="s">
         <v>8</v>
@@ -3584,7 +3584,7 @@
         <v>0.75</v>
       </c>
       <c r="E155" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="F155" t="s">
         <v>16</v>
@@ -3604,7 +3604,7 @@
         <v>0.75</v>
       </c>
       <c r="E156" t="n">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="F156" t="s">
         <v>16</v>
@@ -3624,7 +3624,7 @@
         <v>0.75</v>
       </c>
       <c r="E157" t="n">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="F157" t="s">
         <v>16</v>
@@ -3644,7 +3644,7 @@
         <v>0.81</v>
       </c>
       <c r="E158" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="F158" t="s">
         <v>16</v>
@@ -3664,7 +3664,7 @@
         <v>0.88</v>
       </c>
       <c r="E159" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="F159" t="s">
         <v>16</v>
@@ -3684,7 +3684,7 @@
         <v>0.88</v>
       </c>
       <c r="E160" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F160" t="s">
         <v>16</v>
@@ -3704,7 +3704,7 @@
         <v>0.63</v>
       </c>
       <c r="E161" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="F161" t="s">
         <v>16</v>
@@ -3724,7 +3724,7 @@
         <v>0.75</v>
       </c>
       <c r="E162" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="F162" t="s">
         <v>16</v>
@@ -3744,7 +3744,7 @@
         <v>0.69</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="F163" t="s">
         <v>16</v>
@@ -3764,7 +3764,7 @@
         <v>0.69</v>
       </c>
       <c r="E164" t="n">
-        <v>2.23</v>
+        <v>2.26</v>
       </c>
       <c r="F164" t="s">
         <v>8</v>
@@ -3784,7 +3784,7 @@
         <v>0.44</v>
       </c>
       <c r="E165" t="n">
-        <v>1.82</v>
+        <v>1.47</v>
       </c>
       <c r="F165" t="s">
         <v>8</v>
@@ -3804,7 +3804,7 @@
         <v>0.63</v>
       </c>
       <c r="E166" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="F166" t="s">
         <v>8</v>
@@ -3824,7 +3824,7 @@
         <v>0.56</v>
       </c>
       <c r="E167" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="F167" t="s">
         <v>8</v>
@@ -3844,7 +3844,7 @@
         <v>0.5</v>
       </c>
       <c r="E168" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="F168" t="s">
         <v>8</v>
@@ -3864,7 +3864,7 @@
         <v>0.69</v>
       </c>
       <c r="E169" t="n">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="F169" t="s">
         <v>8</v>
@@ -3884,7 +3884,7 @@
         <v>0.75</v>
       </c>
       <c r="E170" t="n">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="F170" t="s">
         <v>8</v>
@@ -3904,7 +3904,7 @@
         <v>0.56</v>
       </c>
       <c r="E171" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="F171" t="s">
         <v>8</v>
@@ -3924,7 +3924,7 @@
         <v>0.5</v>
       </c>
       <c r="E172" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="F172" t="s">
         <v>8</v>
@@ -3944,7 +3944,7 @@
         <v>0.69</v>
       </c>
       <c r="E173" t="n">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="F173" t="s">
         <v>16</v>
@@ -3964,7 +3964,7 @@
         <v>0.81</v>
       </c>
       <c r="E174" t="n">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="F174" t="s">
         <v>16</v>
@@ -3984,7 +3984,7 @@
         <v>0.75</v>
       </c>
       <c r="E175" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="F175" t="s">
         <v>16</v>
@@ -4004,7 +4004,7 @@
         <v>0.94</v>
       </c>
       <c r="E176" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="F176" t="s">
         <v>16</v>
@@ -4024,7 +4024,7 @@
         <v>0.88</v>
       </c>
       <c r="E177" t="n">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="F177" t="s">
         <v>16</v>
@@ -4044,7 +4044,7 @@
         <v>0.88</v>
       </c>
       <c r="E178" t="n">
-        <v>0.65</v>
+        <v>0.54</v>
       </c>
       <c r="F178" t="s">
         <v>16</v>
@@ -4064,7 +4064,7 @@
         <v>0.63</v>
       </c>
       <c r="E179" t="n">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="F179" t="s">
         <v>16</v>
@@ -4104,7 +4104,7 @@
         <v>0.75</v>
       </c>
       <c r="E181" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="F181" t="s">
         <v>16</v>
@@ -4124,7 +4124,7 @@
         <v>0.69</v>
       </c>
       <c r="E182" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="F182" t="s">
         <v>16</v>
@@ -4144,7 +4144,7 @@
         <v>0.56</v>
       </c>
       <c r="E183" t="n">
-        <v>1.93</v>
+        <v>1.33</v>
       </c>
       <c r="F183" t="s">
         <v>16</v>
@@ -4164,7 +4164,7 @@
         <v>0.69</v>
       </c>
       <c r="E184" t="n">
-        <v>1.82</v>
+        <v>1.34</v>
       </c>
       <c r="F184" t="s">
         <v>16</v>
@@ -4184,7 +4184,7 @@
         <v>0.75</v>
       </c>
       <c r="E185" t="n">
-        <v>3.71</v>
+        <v>3.98</v>
       </c>
       <c r="F185" t="s">
         <v>16</v>
@@ -4204,7 +4204,7 @@
         <v>0.81</v>
       </c>
       <c r="E186" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="F186" t="s">
         <v>16</v>
@@ -4224,7 +4224,7 @@
         <v>0.56</v>
       </c>
       <c r="E187" t="n">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="F187" t="s">
         <v>16</v>
@@ -4244,7 +4244,7 @@
         <v>0.62</v>
       </c>
       <c r="E188" t="n">
-        <v>2.28</v>
+        <v>2.71</v>
       </c>
       <c r="F188" t="s">
         <v>16</v>
@@ -4264,7 +4264,7 @@
         <v>0.81</v>
       </c>
       <c r="E189" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="F189" t="s">
         <v>16</v>
@@ -4284,7 +4284,7 @@
         <v>0.88</v>
       </c>
       <c r="E190" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="F190" t="s">
         <v>16</v>
@@ -4304,7 +4304,7 @@
         <v>0.62</v>
       </c>
       <c r="E191" t="n">
-        <v>4.46</v>
+        <v>5.08</v>
       </c>
       <c r="F191" t="s">
         <v>8</v>
@@ -4324,7 +4324,7 @@
         <v>0.56</v>
       </c>
       <c r="E192" t="n">
-        <v>2.54</v>
+        <v>2.33</v>
       </c>
       <c r="F192" t="s">
         <v>8</v>
@@ -4344,7 +4344,7 @@
         <v>0.62</v>
       </c>
       <c r="E193" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="F193" t="s">
         <v>8</v>
@@ -4364,7 +4364,7 @@
         <v>0.81</v>
       </c>
       <c r="E194" t="n">
-        <v>2.58</v>
+        <v>2.68</v>
       </c>
       <c r="F194" t="s">
         <v>8</v>
@@ -4384,7 +4384,7 @@
         <v>0.75</v>
       </c>
       <c r="E195" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="F195" t="s">
         <v>8</v>
@@ -4404,7 +4404,7 @@
         <v>0.75</v>
       </c>
       <c r="E196" t="n">
-        <v>2.2</v>
+        <v>1.86</v>
       </c>
       <c r="F196" t="s">
         <v>8</v>
@@ -4424,7 +4424,7 @@
         <v>0.56</v>
       </c>
       <c r="E197" t="n">
-        <v>2.99</v>
+        <v>2.82</v>
       </c>
       <c r="F197" t="s">
         <v>8</v>
@@ -4444,7 +4444,7 @@
         <v>0.44</v>
       </c>
       <c r="E198" t="n">
-        <v>1.73</v>
+        <v>1.27</v>
       </c>
       <c r="F198" t="s">
         <v>8</v>
@@ -4464,7 +4464,7 @@
         <v>0.75</v>
       </c>
       <c r="E199" t="n">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="F199" t="s">
         <v>8</v>
@@ -4484,7 +4484,7 @@
         <v>0.94</v>
       </c>
       <c r="E200" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="F200" t="s">
         <v>16</v>
@@ -4504,7 +4504,7 @@
         <v>0.69</v>
       </c>
       <c r="E201" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="F201" t="s">
         <v>16</v>
@@ -4524,7 +4524,7 @@
         <v>0.75</v>
       </c>
       <c r="E202" t="n">
-        <v>0.81</v>
+        <v>0.86</v>
       </c>
       <c r="F202" t="s">
         <v>16</v>
@@ -4544,7 +4544,7 @@
         <v>0.81</v>
       </c>
       <c r="E203" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="F203" t="s">
         <v>16</v>
@@ -4564,7 +4564,7 @@
         <v>0.75</v>
       </c>
       <c r="E204" t="n">
-        <v>1.02</v>
+        <v>0.86</v>
       </c>
       <c r="F204" t="s">
         <v>16</v>
@@ -4584,7 +4584,7 @@
         <v>0.62</v>
       </c>
       <c r="E205" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="F205" t="s">
         <v>16</v>
@@ -4604,7 +4604,7 @@
         <v>0.81</v>
       </c>
       <c r="E206" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="F206" t="s">
         <v>16</v>
@@ -4624,7 +4624,7 @@
         <v>0.88</v>
       </c>
       <c r="E207" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F207" t="s">
         <v>16</v>
@@ -4644,7 +4644,7 @@
         <v>0.75</v>
       </c>
       <c r="E208" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="F208" t="s">
         <v>16</v>
@@ -4664,7 +4664,7 @@
         <v>0.69</v>
       </c>
       <c r="E209" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="F209" t="s">
         <v>16</v>
@@ -4684,7 +4684,7 @@
         <v>0.69</v>
       </c>
       <c r="E210" t="n">
-        <v>0.94</v>
+        <v>0.66</v>
       </c>
       <c r="F210" t="s">
         <v>16</v>
@@ -4704,7 +4704,7 @@
         <v>0.5</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="F211" t="s">
         <v>16</v>
@@ -4724,7 +4724,7 @@
         <v>0.75</v>
       </c>
       <c r="E212" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="F212" t="s">
         <v>16</v>
@@ -4744,7 +4744,7 @@
         <v>0.81</v>
       </c>
       <c r="E213" t="n">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="F213" t="s">
         <v>16</v>
@@ -4764,7 +4764,7 @@
         <v>0.94</v>
       </c>
       <c r="E214" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="F214" t="s">
         <v>16</v>
@@ -4784,7 +4784,7 @@
         <v>0.63</v>
       </c>
       <c r="E215" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="F215" t="s">
         <v>16</v>
@@ -4824,7 +4824,7 @@
         <v>0.63</v>
       </c>
       <c r="E217" t="n">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="F217" t="s">
         <v>16</v>
@@ -4844,7 +4844,7 @@
         <v>0.75</v>
       </c>
       <c r="E218" t="n">
-        <v>2.19</v>
+        <v>1.92</v>
       </c>
       <c r="F218" t="s">
         <v>8</v>
@@ -4864,7 +4864,7 @@
         <v>0.81</v>
       </c>
       <c r="E219" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="F219" t="s">
         <v>8</v>
@@ -4884,7 +4884,7 @@
         <v>0.81</v>
       </c>
       <c r="E220" t="n">
-        <v>0.73</v>
+        <v>0.58</v>
       </c>
       <c r="F220" t="s">
         <v>8</v>
@@ -4924,7 +4924,7 @@
         <v>0.75</v>
       </c>
       <c r="E222" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="F222" t="s">
         <v>8</v>
@@ -4944,7 +4944,7 @@
         <v>0.63</v>
       </c>
       <c r="E223" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="F223" t="s">
         <v>8</v>
@@ -4964,7 +4964,7 @@
         <v>0.69</v>
       </c>
       <c r="E224" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="F224" t="s">
         <v>8</v>
@@ -4984,7 +4984,7 @@
         <v>0.56</v>
       </c>
       <c r="E225" t="n">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="F225" t="s">
         <v>8</v>
@@ -5004,7 +5004,7 @@
         <v>0.56</v>
       </c>
       <c r="E226" t="n">
-        <v>0.78</v>
+        <v>1.08</v>
       </c>
       <c r="F226" t="s">
         <v>8</v>
@@ -5024,7 +5024,7 @@
         <v>0.69</v>
       </c>
       <c r="E227" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="F227" t="s">
         <v>8</v>
@@ -5044,7 +5044,7 @@
         <v>0.81</v>
       </c>
       <c r="E228" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="F228" t="s">
         <v>8</v>
@@ -5064,7 +5064,7 @@
         <v>0.81</v>
       </c>
       <c r="E229" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="F229" t="s">
         <v>8</v>
@@ -5084,7 +5084,7 @@
         <v>0.88</v>
       </c>
       <c r="E230" t="n">
-        <v>2.96</v>
+        <v>3.01</v>
       </c>
       <c r="F230" t="s">
         <v>8</v>
@@ -5104,7 +5104,7 @@
         <v>0.94</v>
       </c>
       <c r="E231" t="n">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="F231" t="s">
         <v>8</v>
@@ -5144,7 +5144,7 @@
         <v>0.62</v>
       </c>
       <c r="E233" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="F233" t="s">
         <v>8</v>
@@ -5164,7 +5164,7 @@
         <v>0.81</v>
       </c>
       <c r="E234" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="F234" t="s">
         <v>8</v>
@@ -5184,7 +5184,7 @@
         <v>0.63</v>
       </c>
       <c r="E235" t="n">
-        <v>2.29</v>
+        <v>2.42</v>
       </c>
       <c r="F235" t="s">
         <v>8</v>
@@ -5204,7 +5204,7 @@
         <v>0.69</v>
       </c>
       <c r="E236" t="n">
-        <v>2.47</v>
+        <v>2.58</v>
       </c>
       <c r="F236" t="s">
         <v>8</v>
@@ -5224,7 +5224,7 @@
         <v>0.75</v>
       </c>
       <c r="E237" t="n">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="F237" t="s">
         <v>8</v>
@@ -5244,7 +5244,7 @@
         <v>0.69</v>
       </c>
       <c r="E238" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="F238" t="s">
         <v>8</v>
@@ -5264,7 +5264,7 @@
         <v>0.81</v>
       </c>
       <c r="E239" t="n">
-        <v>3.38</v>
+        <v>2.56</v>
       </c>
       <c r="F239" t="s">
         <v>8</v>
@@ -5284,7 +5284,7 @@
         <v>0.81</v>
       </c>
       <c r="E240" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="F240" t="s">
         <v>8</v>
@@ -5324,7 +5324,7 @@
         <v>0.75</v>
       </c>
       <c r="E242" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="F242" t="s">
         <v>8</v>
@@ -5344,7 +5344,7 @@
         <v>0.75</v>
       </c>
       <c r="E243" t="n">
-        <v>2.87</v>
+        <v>3.04</v>
       </c>
       <c r="F243" t="s">
         <v>8</v>
@@ -5364,7 +5364,7 @@
         <v>0.81</v>
       </c>
       <c r="E244" t="n">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="F244" t="s">
         <v>8</v>
@@ -5384,7 +5384,7 @@
         <v>0.75</v>
       </c>
       <c r="E245" t="n">
-        <v>2.61</v>
+        <v>2.16</v>
       </c>
       <c r="F245" t="s">
         <v>16</v>
@@ -5404,7 +5404,7 @@
         <v>0.88</v>
       </c>
       <c r="E246" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="F246" t="s">
         <v>16</v>
@@ -5424,7 +5424,7 @@
         <v>0.81</v>
       </c>
       <c r="E247" t="n">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="F247" t="s">
         <v>16</v>
@@ -5444,7 +5444,7 @@
         <v>0.75</v>
       </c>
       <c r="E248" t="n">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="F248" t="s">
         <v>16</v>
@@ -5464,7 +5464,7 @@
         <v>0.88</v>
       </c>
       <c r="E249" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="F249" t="s">
         <v>16</v>
@@ -5484,7 +5484,7 @@
         <v>0.75</v>
       </c>
       <c r="E250" t="n">
-        <v>1.76</v>
+        <v>1.41</v>
       </c>
       <c r="F250" t="s">
         <v>16</v>
@@ -5504,7 +5504,7 @@
         <v>0.88</v>
       </c>
       <c r="E251" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="F251" t="s">
         <v>16</v>
@@ -5524,7 +5524,7 @@
         <v>0.75</v>
       </c>
       <c r="E252" t="n">
-        <v>1.96</v>
+        <v>1.55</v>
       </c>
       <c r="F252" t="s">
         <v>16</v>
@@ -5544,7 +5544,7 @@
         <v>0.88</v>
       </c>
       <c r="E253" t="n">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="F253" t="s">
         <v>16</v>
@@ -5564,7 +5564,7 @@
         <v>0.69</v>
       </c>
       <c r="E254" t="n">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="F254" t="s">
         <v>16</v>
@@ -5584,7 +5584,7 @@
         <v>0.62</v>
       </c>
       <c r="E255" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="F255" t="s">
         <v>16</v>
@@ -5604,7 +5604,7 @@
         <v>0.75</v>
       </c>
       <c r="E256" t="n">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="F256" t="s">
         <v>16</v>
@@ -5644,7 +5644,7 @@
         <v>0.75</v>
       </c>
       <c r="E258" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F258" t="s">
         <v>16</v>
@@ -5664,7 +5664,7 @@
         <v>0.75</v>
       </c>
       <c r="E259" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F259" t="s">
         <v>16</v>
@@ -5684,7 +5684,7 @@
         <v>0.56</v>
       </c>
       <c r="E260" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="F260" t="s">
         <v>16</v>
@@ -5704,7 +5704,7 @@
         <v>0.62</v>
       </c>
       <c r="E261" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="F261" t="s">
         <v>16</v>
@@ -5724,7 +5724,7 @@
         <v>0.56</v>
       </c>
       <c r="E262" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="F262" t="s">
         <v>16</v>
@@ -5744,7 +5744,7 @@
         <v>0.69</v>
       </c>
       <c r="E263" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="F263" t="s">
         <v>16</v>
@@ -5764,7 +5764,7 @@
         <v>0.81</v>
       </c>
       <c r="E264" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="F264" t="s">
         <v>16</v>
@@ -5784,7 +5784,7 @@
         <v>0.88</v>
       </c>
       <c r="E265" t="n">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="F265" t="s">
         <v>16</v>
@@ -5804,7 +5804,7 @@
         <v>0.75</v>
       </c>
       <c r="E266" t="n">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="F266" t="s">
         <v>16</v>
@@ -5824,7 +5824,7 @@
         <v>0.63</v>
       </c>
       <c r="E267" t="n">
-        <v>1.56</v>
+        <v>0.92</v>
       </c>
       <c r="F267" t="s">
         <v>16</v>
@@ -5844,7 +5844,7 @@
         <v>0.69</v>
       </c>
       <c r="E268" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="F268" t="s">
         <v>16</v>
@@ -5864,7 +5864,7 @@
         <v>0.56</v>
       </c>
       <c r="E269" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="F269" t="s">
         <v>16</v>
@@ -5884,7 +5884,7 @@
         <v>0.69</v>
       </c>
       <c r="E270" t="n">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F270" t="s">
         <v>16</v>
@@ -5904,7 +5904,7 @@
         <v>0.63</v>
       </c>
       <c r="E271" t="n">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F271" t="s">
         <v>16</v>
@@ -5924,7 +5924,7 @@
         <v>0.69</v>
       </c>
       <c r="E272" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="F272" t="s">
         <v>42</v>
@@ -5944,7 +5944,7 @@
         <v>0.88</v>
       </c>
       <c r="E273" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="F273" t="s">
         <v>42</v>
@@ -5964,7 +5964,7 @@
         <v>0.75</v>
       </c>
       <c r="E274" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="F274" t="s">
         <v>42</v>
@@ -5984,7 +5984,7 @@
         <v>0.56</v>
       </c>
       <c r="E275" t="n">
-        <v>3.05</v>
+        <v>2.33</v>
       </c>
       <c r="F275" t="s">
         <v>42</v>
@@ -6004,7 +6004,7 @@
         <v>0.69</v>
       </c>
       <c r="E276" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="F276" t="s">
         <v>42</v>
@@ -6024,7 +6024,7 @@
         <v>0.63</v>
       </c>
       <c r="E277" t="n">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="F277" t="s">
         <v>42</v>
@@ -6044,7 +6044,7 @@
         <v>0.56</v>
       </c>
       <c r="E278" t="n">
-        <v>2.17</v>
+        <v>1.81</v>
       </c>
       <c r="F278" t="s">
         <v>42</v>
@@ -6064,7 +6064,7 @@
         <v>0.62</v>
       </c>
       <c r="E279" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="F279" t="s">
         <v>42</v>
@@ -6084,7 +6084,7 @@
         <v>0.75</v>
       </c>
       <c r="E280" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="F280" t="s">
         <v>42</v>
@@ -6104,7 +6104,7 @@
         <v>0.69</v>
       </c>
       <c r="E281" t="n">
-        <v>3.72</v>
+        <v>3.98</v>
       </c>
       <c r="F281" t="s">
         <v>42</v>
@@ -6124,7 +6124,7 @@
         <v>0.62</v>
       </c>
       <c r="E282" t="n">
-        <v>3.37</v>
+        <v>4.46</v>
       </c>
       <c r="F282" t="s">
         <v>42</v>
@@ -6144,7 +6144,7 @@
         <v>0.81</v>
       </c>
       <c r="E283" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="F283" t="s">
         <v>42</v>
@@ -6164,7 +6164,7 @@
         <v>0.63</v>
       </c>
       <c r="E284" t="n">
-        <v>3.86</v>
+        <v>3.75</v>
       </c>
       <c r="F284" t="s">
         <v>42</v>
@@ -6184,7 +6184,7 @@
         <v>0.75</v>
       </c>
       <c r="E285" t="n">
-        <v>2.08</v>
+        <v>2.7</v>
       </c>
       <c r="F285" t="s">
         <v>42</v>
@@ -6204,7 +6204,7 @@
         <v>0.69</v>
       </c>
       <c r="E286" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="F286" t="s">
         <v>42</v>
@@ -6224,7 +6224,7 @@
         <v>0.75</v>
       </c>
       <c r="E287" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="F287" t="s">
         <v>42</v>
@@ -6244,7 +6244,7 @@
         <v>0.75</v>
       </c>
       <c r="E288" t="n">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="F288" t="s">
         <v>42</v>
@@ -6284,7 +6284,7 @@
         <v>0.5</v>
       </c>
       <c r="E290" t="n">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="F290" t="s">
         <v>42</v>
@@ -6304,7 +6304,7 @@
         <v>0.5</v>
       </c>
       <c r="E291" t="n">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="F291" t="s">
         <v>42</v>
@@ -6324,7 +6324,7 @@
         <v>0.56</v>
       </c>
       <c r="E292" t="n">
-        <v>0.69</v>
+        <v>0.56</v>
       </c>
       <c r="F292" t="s">
         <v>42</v>
@@ -6344,7 +6344,7 @@
         <v>0.56</v>
       </c>
       <c r="E293" t="n">
-        <v>1.12</v>
+        <v>1.3</v>
       </c>
       <c r="F293" t="s">
         <v>42</v>
@@ -6364,7 +6364,7 @@
         <v>0.56</v>
       </c>
       <c r="E294" t="n">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="F294" t="s">
         <v>42</v>
@@ -6384,7 +6384,7 @@
         <v>0.69</v>
       </c>
       <c r="E295" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="F295" t="s">
         <v>42</v>
@@ -6404,7 +6404,7 @@
         <v>0.44</v>
       </c>
       <c r="E296" t="n">
-        <v>1.07</v>
+        <v>0.69</v>
       </c>
       <c r="F296" t="s">
         <v>42</v>
@@ -6424,7 +6424,7 @@
         <v>0.56</v>
       </c>
       <c r="E297" t="n">
-        <v>1.17</v>
+        <v>1.76</v>
       </c>
       <c r="F297" t="s">
         <v>42</v>
@@ -6444,7 +6444,7 @@
         <v>0.44</v>
       </c>
       <c r="E298" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="F298" t="s">
         <v>42</v>
@@ -6464,7 +6464,7 @@
         <v>0.75</v>
       </c>
       <c r="E299" t="n">
-        <v>2.54</v>
+        <v>2.12</v>
       </c>
       <c r="F299" t="s">
         <v>42</v>
@@ -6484,7 +6484,7 @@
         <v>0.75</v>
       </c>
       <c r="E300" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="F300" t="s">
         <v>42</v>
@@ -6504,7 +6504,7 @@
         <v>0.75</v>
       </c>
       <c r="E301" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="F301" t="s">
         <v>42</v>
@@ -6524,7 +6524,7 @@
         <v>0.75</v>
       </c>
       <c r="E302" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="F302" t="s">
         <v>42</v>
@@ -6544,7 +6544,7 @@
         <v>0.88</v>
       </c>
       <c r="E303" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="F303" t="s">
         <v>42</v>
@@ -6564,7 +6564,7 @@
         <v>0.88</v>
       </c>
       <c r="E304" t="n">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="F304" t="s">
         <v>42</v>
@@ -6584,7 +6584,7 @@
         <v>0.69</v>
       </c>
       <c r="E305" t="n">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="F305" t="s">
         <v>42</v>
@@ -6604,7 +6604,7 @@
         <v>0.88</v>
       </c>
       <c r="E306" t="n">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="F306" t="s">
         <v>42</v>
@@ -6624,7 +6624,7 @@
         <v>0.56</v>
       </c>
       <c r="E307" t="n">
-        <v>2.09</v>
+        <v>1.63</v>
       </c>
       <c r="F307" t="s">
         <v>42</v>
@@ -6644,7 +6644,7 @@
         <v>0.81</v>
       </c>
       <c r="E308" t="n">
-        <v>4.68</v>
+        <v>5.26</v>
       </c>
       <c r="F308" t="s">
         <v>42</v>
@@ -6664,7 +6664,7 @@
         <v>0.75</v>
       </c>
       <c r="E309" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="F309" t="s">
         <v>42</v>
@@ -6684,7 +6684,7 @@
         <v>0.62</v>
       </c>
       <c r="E310" t="n">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="F310" t="s">
         <v>42</v>
@@ -6704,7 +6704,7 @@
         <v>0.94</v>
       </c>
       <c r="E311" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="F311" t="s">
         <v>42</v>
@@ -6724,7 +6724,7 @@
         <v>0.88</v>
       </c>
       <c r="E312" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="F312" t="s">
         <v>42</v>
@@ -6764,7 +6764,7 @@
         <v>0.56</v>
       </c>
       <c r="E314" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="F314" t="s">
         <v>42</v>
@@ -6784,7 +6784,7 @@
         <v>0.75</v>
       </c>
       <c r="E315" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="F315" t="s">
         <v>42</v>
@@ -6804,7 +6804,7 @@
         <v>0.69</v>
       </c>
       <c r="E316" t="n">
-        <v>2.14</v>
+        <v>2.81</v>
       </c>
       <c r="F316" t="s">
         <v>42</v>
@@ -6824,7 +6824,7 @@
         <v>0.63</v>
       </c>
       <c r="E317" t="n">
-        <v>2.21</v>
+        <v>3.42</v>
       </c>
       <c r="F317" t="s">
         <v>42</v>
@@ -6844,7 +6844,7 @@
         <v>0.63</v>
       </c>
       <c r="E318" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="F318" t="s">
         <v>42</v>
@@ -6864,7 +6864,7 @@
         <v>0.75</v>
       </c>
       <c r="E319" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="F319" t="s">
         <v>42</v>
@@ -6884,7 +6884,7 @@
         <v>0.56</v>
       </c>
       <c r="E320" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="F320" t="s">
         <v>42</v>
@@ -6904,7 +6904,7 @@
         <v>0.81</v>
       </c>
       <c r="E321" t="n">
-        <v>2.68</v>
+        <v>1.78</v>
       </c>
       <c r="F321" t="s">
         <v>42</v>
@@ -6924,7 +6924,7 @@
         <v>0.94</v>
       </c>
       <c r="E322" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="F322" t="s">
         <v>42</v>
@@ -6944,7 +6944,7 @@
         <v>0.56</v>
       </c>
       <c r="E323" t="n">
-        <v>2.16</v>
+        <v>2.93</v>
       </c>
       <c r="F323" t="s">
         <v>42</v>
@@ -6964,7 +6964,7 @@
         <v>0.56</v>
       </c>
       <c r="E324" t="n">
-        <v>1.51</v>
+        <v>1.07</v>
       </c>
       <c r="F324" t="s">
         <v>42</v>
@@ -6984,7 +6984,7 @@
         <v>0.5</v>
       </c>
       <c r="E325" t="n">
-        <v>1.52</v>
+        <v>2.6</v>
       </c>
       <c r="F325" t="s">
         <v>42</v>
@@ -7004,7 +7004,7 @@
         <v>0.69</v>
       </c>
       <c r="E326" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="F326" t="s">
         <v>8</v>
@@ -7024,7 +7024,7 @@
         <v>0.69</v>
       </c>
       <c r="E327" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="F327" t="s">
         <v>8</v>
@@ -7044,7 +7044,7 @@
         <v>0.75</v>
       </c>
       <c r="E328" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="F328" t="s">
         <v>8</v>
@@ -7064,7 +7064,7 @@
         <v>0.56</v>
       </c>
       <c r="E329" t="n">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="F329" t="s">
         <v>8</v>
@@ -7084,7 +7084,7 @@
         <v>0.62</v>
       </c>
       <c r="E330" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="F330" t="s">
         <v>8</v>
@@ -7104,7 +7104,7 @@
         <v>0.56</v>
       </c>
       <c r="E331" t="n">
-        <v>1.71</v>
+        <v>1.53</v>
       </c>
       <c r="F331" t="s">
         <v>8</v>
@@ -7124,7 +7124,7 @@
         <v>0.69</v>
       </c>
       <c r="E332" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="F332" t="s">
         <v>8</v>
@@ -7144,7 +7144,7 @@
         <v>0.81</v>
       </c>
       <c r="E333" t="n">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="F333" t="s">
         <v>8</v>
@@ -7164,7 +7164,7 @@
         <v>0.63</v>
       </c>
       <c r="E334" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="F334" t="s">
         <v>8</v>

--- a/R/analysis/data/Accuracy_genuine_lf.xlsx
+++ b/R/analysis/data/Accuracy_genuine_lf.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">subject</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
   </si>
 </sst>
 </file>
@@ -7170,6 +7179,546 @@
         <v>8</v>
       </c>
     </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>49</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+      <c r="C335" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F335" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>49</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2</v>
+      </c>
+      <c r="C336" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F336" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>49</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3</v>
+      </c>
+      <c r="C337" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F337" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>49</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="s">
+        <v>9</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F338" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>49</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2</v>
+      </c>
+      <c r="C339" t="s">
+        <v>9</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F339" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>49</v>
+      </c>
+      <c r="B340" t="n">
+        <v>3</v>
+      </c>
+      <c r="C340" t="s">
+        <v>9</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F340" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>49</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+      <c r="C341" t="s">
+        <v>10</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F341" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>49</v>
+      </c>
+      <c r="B342" t="n">
+        <v>2</v>
+      </c>
+      <c r="C342" t="s">
+        <v>10</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F342" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>49</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3</v>
+      </c>
+      <c r="C343" t="s">
+        <v>10</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F343" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>50</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F344" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>50</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2</v>
+      </c>
+      <c r="C345" t="s">
+        <v>7</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="F345" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>50</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3</v>
+      </c>
+      <c r="C346" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F346" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>50</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>9</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F347" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>50</v>
+      </c>
+      <c r="B348" t="n">
+        <v>2</v>
+      </c>
+      <c r="C348" t="s">
+        <v>9</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F348" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>50</v>
+      </c>
+      <c r="B349" t="n">
+        <v>3</v>
+      </c>
+      <c r="C349" t="s">
+        <v>9</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F349" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>50</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+      <c r="C350" t="s">
+        <v>10</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F350" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>50</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
+      </c>
+      <c r="C351" t="s">
+        <v>10</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="F351" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>50</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3</v>
+      </c>
+      <c r="C352" t="s">
+        <v>10</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F352" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>51</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+      <c r="C353" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F353" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>51</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2</v>
+      </c>
+      <c r="C354" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="F354" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>51</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3</v>
+      </c>
+      <c r="C355" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F355" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>51</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+      <c r="C356" t="s">
+        <v>9</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F356" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>51</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2</v>
+      </c>
+      <c r="C357" t="s">
+        <v>9</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F357" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>51</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="E358" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F358" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>51</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+      <c r="C359" t="s">
+        <v>10</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F359" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>51</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2</v>
+      </c>
+      <c r="C360" t="s">
+        <v>10</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F360" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>51</v>
+      </c>
+      <c r="B361" t="n">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>10</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F361" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
